--- a/biology/Médecine/Robert_Willner/Robert_Willner.xlsx
+++ b/biology/Médecine/Robert_Willner/Robert_Willner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert E. Willner (21 juin 1929 - 15 avril 1995) est un médecin américain connu pour son rôle dans la controverse sur le sida. Il défendait l’opinion selon laquelle le SIDA n’est pas causé par l’infection du VIH.
 </t>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Willner se décrit lui-même comme à l’origine un médecin « orthodoxe » qui passe lentement à la médecine alternative, en particulier après la lutte de sa femme avec un cancer suivi d'une chimiothérapie[1].
-En 1995, Willner a affirmé : « Je suis convaincu que vous pouvez prévenir la maladie de « tous » par l’alimentation, les changements de mode de vie, l’assainissement. »[1].
-L'état de Floride a suspendu sa licence médicale en 1990 à la suite d’une décision du Florida Board of Medicine selon laquelle Willner avait fait des affirmations médicales inappropriées pour des produits alimentaires[1].
-Willner est l’auteur d’un livre présentant son point de vue sur la relation entre le VIH et le sida, intitulé « Deadly Deception: the Proof That Sex And HIV Absolutely Do Not Cause AID »[2].
-Le livre a été publié peu de temps après que la licence médicale de Willner a été révoquée pour, entre autres choses, le traitement d’un patient atteint du sida avec l'ozonothérapie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willner se décrit lui-même comme à l’origine un médecin « orthodoxe » qui passe lentement à la médecine alternative, en particulier après la lutte de sa femme avec un cancer suivi d'une chimiothérapie.
+En 1995, Willner a affirmé : « Je suis convaincu que vous pouvez prévenir la maladie de « tous » par l’alimentation, les changements de mode de vie, l’assainissement. ».
+L'état de Floride a suspendu sa licence médicale en 1990 à la suite d’une décision du Florida Board of Medicine selon laquelle Willner avait fait des affirmations médicales inappropriées pour des produits alimentaires.
+Willner est l’auteur d’un livre présentant son point de vue sur la relation entre le VIH et le sida, intitulé « Deadly Deception: the Proof That Sex And HIV Absolutely Do Not Cause AID ».
+Le livre a été publié peu de temps après que la licence médicale de Willner a été révoquée pour, entre autres choses, le traitement d’un patient atteint du sida avec l'ozonothérapie.
 En 1993, en Espagne, devant les caméras de télévision, il s'injecte du sang d'un patient séropositif (Pedro Tocino) ce qui fait l'objet d'une large exposition médiatique. Lors de la même intervention, il va accuser Anthony Fauci, alors au NIH, de génocide.
 Le mois suivant, le 28 octobre 1994, lors d’une conférence de presse dans un hôtel Greensboro, Caroline du Nord, Willner réitère l'expérience espagnole.
 Willner a été fortement influencé par les recherches de Peter Duesberg.
 Il est également l'auteur de livres sur l'acupression et le régime amaigrissant.
-Willner est décédé le 15 avril 1995 d’une crise cardiaque [4].
+Willner est décédé le 15 avril 1995 d’une crise cardiaque .
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acupressure: Confidential report, 1979
 The Pleasure Principle Diet: How to Lose Weight Permanently, Eating the Foods You Love (Simon &amp; Schuster, 1984)
